--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H2">
         <v>1.8681</v>
       </c>
       <c r="I2">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J2">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5974506666666667</v>
+        <v>0.939461</v>
       </c>
       <c r="N2">
-        <v>1.792352</v>
+        <v>2.818383</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3720325301333334</v>
+        <v>0.5850023646999999</v>
       </c>
       <c r="R2">
-        <v>3.348292771200001</v>
+        <v>5.265021282299999</v>
       </c>
       <c r="S2">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="T2">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H3">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I3">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J3">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5974506666666667</v>
+        <v>0.939461</v>
       </c>
       <c r="N3">
-        <v>1.792352</v>
+        <v>2.818383</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2623256514666667</v>
+        <v>0.04687378028766667</v>
       </c>
       <c r="R3">
-        <v>2.360930863200001</v>
+        <v>0.421864022589</v>
       </c>
       <c r="S3">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="T3">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H4">
         <v>0.101972</v>
       </c>
       <c r="I4">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J4">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5974506666666667</v>
+        <v>0.939461</v>
       </c>
       <c r="N4">
-        <v>1.792352</v>
+        <v>2.818383</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.02030774646044445</v>
+        <v>0.03193290569733333</v>
       </c>
       <c r="R4">
-        <v>0.182769718144</v>
+        <v>0.287396151276</v>
       </c>
       <c r="S4">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="T4">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
     </row>
   </sheetData>
